--- a/medicine/Pharmacie/Nitrofurane/Nitrofurane.xlsx
+++ b/medicine/Pharmacie/Nitrofurane/Nitrofurane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nitrofuranes sont des composés possédant un groupe nitro fixé sur un cycle furanique. Ils se présentent sous la forme de poudres cristallines, jaunes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nitrofuranes sont des composés possédant un groupe nitro fixé sur un cycle furanique. Ils se présentent sous la forme de poudres cristallines, jaunes.
 Ils sont utilisés comme antibiotiques ou antimicrobiens.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nitrofurantoïne est essentiellement active sur les germes urinaires, parmi lesquels : Escherichia coli, Enterococcus faecalis, Staphylococcus saprophyticus, Staphylococcus epidermidis.
 </t>
@@ -543,7 +557,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Demi-vie courte. L'élimination est rénale dont 40 % sous forme active, ce qui explique son activité sur le tractus urinaire. L'absorption orale est bonne. Les nitrofuranes passent dans le lait maternel.
 </t>
@@ -574,7 +590,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Furaltadone, usage vétérinaire
 Furazolidone (marques Furoxone, Dependal-M), possède une activité antiprotozoaire et antibactérienne, usage vétérinaire
@@ -586,7 +604,7 @@
 Nifurtoïnol (Urfadyne), antibactérien
 Nifurzide, anti-infectieux
 Nitrofural (synonymes : nitrofurazone, furaciline) (Furacine), antibactérien
-Nitrofurantoïne (Furadantine[2], Furadoïne, Microdoïne), antibactérien
+Nitrofurantoïne (Furadantine, Furadoïne, Microdoïne), antibactérien
 Ranbezolide (RBX-7644), antibactérien</t>
         </is>
       </c>
